--- a/data/trans_orig/P6716-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F588EE09-F191-4473-8889-77256BAA2A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CDF1D81-94BB-4E93-90CC-78339337E3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE936DC4-D207-4574-A432-E2C13D6A3AB0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{281D72E1-0788-4373-B141-719624DB8073}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="717">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -96,2065 +96,2098 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>6,26%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>28,88%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
 </sst>
 </file>
@@ -2566,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC67E07-89E4-461A-91AE-80F7430C22FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3194D41F-8348-477A-9460-2213146F7F69}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3288,10 +3321,10 @@
         <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3300,7 +3333,7 @@
         <v>3867</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>70</v>
@@ -3324,10 +3357,10 @@
         <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3336,13 +3369,13 @@
         <v>986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3351,13 +3384,13 @@
         <v>11595</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3405,13 @@
         <v>26535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -3387,13 +3420,13 @@
         <v>24113</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -3402,13 +3435,13 @@
         <v>50648</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3456,13 @@
         <v>39818</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -3438,13 +3471,13 @@
         <v>14110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -3453,13 +3486,13 @@
         <v>53929</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3507,13 @@
         <v>65303</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3489,13 +3522,13 @@
         <v>40225</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>104</v>
@@ -3504,13 +3537,13 @@
         <v>105528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3599,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3578,13 +3611,13 @@
         <v>17277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3593,13 +3626,13 @@
         <v>10540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -3608,13 +3641,13 @@
         <v>27817</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,10 +3665,10 @@
         <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3644,13 +3677,13 @@
         <v>5883</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3659,13 +3692,13 @@
         <v>15481</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3713,13 @@
         <v>43187</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -3695,13 +3728,13 @@
         <v>43720</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -3710,13 +3743,13 @@
         <v>86907</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3764,13 @@
         <v>55510</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3746,10 +3779,10 @@
         <v>27540</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>137</v>
@@ -3904,10 +3937,10 @@
         <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3916,13 +3949,13 @@
         <v>8550</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3970,13 @@
         <v>5641</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3952,13 +3985,13 @@
         <v>5906</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3967,13 +4000,13 @@
         <v>11548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4021,13 @@
         <v>17516</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4003,13 +4036,13 @@
         <v>11662</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4018,13 +4051,13 @@
         <v>29178</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4072,13 @@
         <v>14251</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -4054,13 +4087,13 @@
         <v>13594</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -4069,13 +4102,13 @@
         <v>27845</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4123,13 @@
         <v>42137</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4105,13 +4138,13 @@
         <v>18690</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -4120,13 +4153,13 @@
         <v>60827</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,7 +4215,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4197,10 +4230,10 @@
         <v>65</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4212,10 +4245,10 @@
         <v>65</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4227,10 +4260,10 @@
         <v>65</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4278,13 @@
         <v>4850</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4260,13 +4293,13 @@
         <v>1046</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -4275,13 +4308,13 @@
         <v>5896</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4329,13 @@
         <v>18727</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4311,13 +4344,13 @@
         <v>10185</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -4326,13 +4359,13 @@
         <v>28912</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4380,13 @@
         <v>29776</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4362,13 +4395,13 @@
         <v>17133</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -4377,13 +4410,13 @@
         <v>46909</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4431,13 @@
         <v>64913</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -4413,13 +4446,13 @@
         <v>26927</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M38" s="7">
         <v>84</v>
@@ -4428,13 +4461,13 @@
         <v>91841</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,7 +4523,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4502,13 +4535,13 @@
         <v>4798</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -4517,13 +4550,13 @@
         <v>3065</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -4532,13 +4565,13 @@
         <v>7863</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4586,13 @@
         <v>7232</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -4568,13 +4601,13 @@
         <v>9950</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
@@ -4583,13 +4616,13 @@
         <v>17182</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4637,13 @@
         <v>72739</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H42" s="7">
         <v>43</v>
@@ -4619,13 +4652,13 @@
         <v>46135</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M42" s="7">
         <v>111</v>
@@ -4634,13 +4667,13 @@
         <v>118875</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4688,13 @@
         <v>60356</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H43" s="7">
         <v>47</v>
@@ -4670,13 +4703,13 @@
         <v>50792</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M43" s="7">
         <v>106</v>
@@ -4685,13 +4718,13 @@
         <v>111149</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4739,13 @@
         <v>126845</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -4721,13 +4754,13 @@
         <v>72222</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M44" s="7">
         <v>184</v>
@@ -4736,13 +4769,13 @@
         <v>199068</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,7 +4831,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4810,13 +4843,13 @@
         <v>8532</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4825,13 +4858,13 @@
         <v>1064</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M46" s="7">
         <v>9</v>
@@ -4840,13 +4873,13 @@
         <v>9596</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4894,13 @@
         <v>13531</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4876,13 +4909,13 @@
         <v>15756</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="M47" s="7">
         <v>25</v>
@@ -4891,13 +4924,13 @@
         <v>29287</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4945,13 @@
         <v>52908</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H48" s="7">
         <v>44</v>
@@ -4927,13 +4960,13 @@
         <v>50614</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M48" s="7">
         <v>92</v>
@@ -4942,13 +4975,13 @@
         <v>103523</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4996,13 @@
         <v>132561</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -4978,13 +5011,13 @@
         <v>85456</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M49" s="7">
         <v>205</v>
@@ -4993,13 +5026,13 @@
         <v>218016</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5047,13 @@
         <v>154701</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H50" s="7">
         <v>96</v>
@@ -5029,13 +5062,13 @@
         <v>106684</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M50" s="7">
         <v>241</v>
@@ -5044,13 +5077,13 @@
         <v>261385</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5151,13 @@
         <v>39203</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H52" s="7">
         <v>28</v>
@@ -5133,13 +5166,13 @@
         <v>28497</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M52" s="7">
         <v>65</v>
@@ -5148,13 +5181,13 @@
         <v>67701</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5202,13 @@
         <v>59285</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H53" s="7">
         <v>38</v>
@@ -5184,13 +5217,13 @@
         <v>43557</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M53" s="7">
         <v>93</v>
@@ -5199,13 +5232,13 @@
         <v>102841</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5253,13 @@
         <v>256855</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H54" s="7">
         <v>187</v>
@@ -5235,13 +5268,13 @@
         <v>204294</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M54" s="7">
         <v>431</v>
@@ -5250,13 +5283,13 @@
         <v>461149</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5304,13 @@
         <v>351462</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H55" s="7">
         <v>214</v>
@@ -5286,13 +5319,13 @@
         <v>223944</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M55" s="7">
         <v>547</v>
@@ -5301,13 +5334,13 @@
         <v>575406</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5355,13 @@
         <v>712947</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H56" s="7">
         <v>407</v>
@@ -5337,13 +5370,13 @@
         <v>446062</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M56" s="7">
         <v>1071</v>
@@ -5352,13 +5385,13 @@
         <v>1159009</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,7 +5447,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +5471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95313EB-2B50-415C-8717-33FBBC714725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E307104-BE98-40DB-B669-05F1D84F3B76}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5455,7 +5488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5562,13 +5595,13 @@
         <v>7406</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5577,10 +5610,10 @@
         <v>4473</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>365</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>366</v>
@@ -5628,10 +5661,10 @@
         <v>7014</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>75</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>374</v>
@@ -5643,7 +5676,7 @@
         <v>21502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>375</v>
@@ -5876,7 +5909,7 @@
         <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5885,10 +5918,10 @@
         <v>7125</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>408</v>
@@ -5900,13 +5933,13 @@
         <v>11310</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5954,13 @@
         <v>7372</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5936,13 +5969,13 @@
         <v>3079</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>417</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5951,13 +5984,13 @@
         <v>10451</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +6005,13 @@
         <v>35127</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -5987,13 +6020,13 @@
         <v>19901</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -6002,13 +6035,13 @@
         <v>55027</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6056,13 @@
         <v>40077</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6038,13 +6071,13 @@
         <v>18346</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -6053,13 +6086,13 @@
         <v>58423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6107,13 @@
         <v>83536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -6089,13 +6122,13 @@
         <v>65230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -6104,13 +6137,13 @@
         <v>148766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6211,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6193,13 +6226,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6208,13 +6241,13 @@
         <v>5276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6262,13 @@
         <v>865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>450</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6244,13 +6277,13 @@
         <v>845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -6259,13 +6292,13 @@
         <v>1710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6313,13 @@
         <v>24945</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -6295,13 +6328,13 @@
         <v>19354</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -6310,13 +6343,13 @@
         <v>44300</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>156</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6364,13 @@
         <v>51825</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6346,13 +6379,13 @@
         <v>28341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -6361,13 +6394,13 @@
         <v>80166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6415,13 @@
         <v>45371</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -6397,13 +6430,13 @@
         <v>33894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -6412,13 +6445,13 @@
         <v>79265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +6507,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6486,13 +6519,13 @@
         <v>9037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6501,13 +6534,13 @@
         <v>8177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -6516,13 +6549,13 @@
         <v>17214</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6570,13 @@
         <v>2957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -6552,13 +6585,13 @@
         <v>2137</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6567,13 +6600,13 @@
         <v>5095</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>492</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6621,13 @@
         <v>14037</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -6603,13 +6636,13 @@
         <v>14043</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -6618,13 +6651,13 @@
         <v>28080</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6672,13 @@
         <v>14043</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6654,13 +6687,13 @@
         <v>9838</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6669,13 +6702,13 @@
         <v>23881</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6723,13 @@
         <v>72106</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -6705,10 +6738,10 @@
         <v>47663</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>517</v>
@@ -6794,7 +6827,7 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>65</v>
@@ -6812,7 +6845,7 @@
         <v>65</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>522</v>
@@ -6830,7 +6863,7 @@
         <v>65</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6878,13 @@
         <v>1020</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6863,7 +6896,7 @@
         <v>65</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>522</v>
@@ -6875,13 +6908,13 @@
         <v>1020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,7 +6950,7 @@
         <v>532</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -6926,13 +6959,13 @@
         <v>22669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6980,13 @@
         <v>36644</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -6962,13 +6995,13 @@
         <v>28715</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -6977,13 +7010,13 @@
         <v>65359</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +7031,13 @@
         <v>30624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -7013,13 +7046,13 @@
         <v>15719</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -7028,13 +7061,13 @@
         <v>46343</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,7 +7123,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7105,10 +7138,10 @@
         <v>65</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>362</v>
+        <v>555</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7117,13 +7150,13 @@
         <v>873</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>68</v>
+        <v>556</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>117</v>
+        <v>557</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7132,13 +7165,13 @@
         <v>873</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,13 +7186,13 @@
         <v>11006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -7168,13 +7201,13 @@
         <v>10953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>417</v>
+        <v>564</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -7183,13 +7216,13 @@
         <v>21960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7237,13 @@
         <v>23765</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>564</v>
+        <v>190</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -7219,13 +7252,13 @@
         <v>14191</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -7234,13 +7267,13 @@
         <v>37957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>570</v>
+        <v>505</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7288,13 @@
         <v>39415</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>343</v>
+        <v>577</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -7270,13 +7303,13 @@
         <v>29329</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -7285,13 +7318,13 @@
         <v>68744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7339,13 @@
         <v>33315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -7321,13 +7354,13 @@
         <v>20222</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -7336,13 +7369,13 @@
         <v>53538</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,7 +7431,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7410,13 +7443,13 @@
         <v>21038</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -7425,13 +7458,13 @@
         <v>25312</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>297</v>
+        <v>598</v>
       </c>
       <c r="M40" s="7">
         <v>42</v>
@@ -7440,13 +7473,13 @@
         <v>46350</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,13 +7494,13 @@
         <v>40982</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H41" s="7">
         <v>31</v>
@@ -7476,13 +7509,13 @@
         <v>32291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -7491,13 +7524,13 @@
         <v>73273</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>489</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,13 +7545,13 @@
         <v>125697</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>214</v>
+        <v>611</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="H42" s="7">
         <v>91</v>
@@ -7527,13 +7560,13 @@
         <v>95630</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="M42" s="7">
         <v>196</v>
@@ -7542,13 +7575,13 @@
         <v>221327</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>612</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,13 +7596,13 @@
         <v>68666</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H43" s="7">
         <v>59</v>
@@ -7578,13 +7611,13 @@
         <v>59731</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="M43" s="7">
         <v>121</v>
@@ -7593,13 +7626,13 @@
         <v>128397</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7647,13 @@
         <v>103543</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>87</v>
+        <v>628</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -7629,13 +7662,13 @@
         <v>71902</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="M44" s="7">
         <v>160</v>
@@ -7644,13 +7677,13 @@
         <v>175446</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,7 +7739,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7718,13 +7751,13 @@
         <v>3355</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>118</v>
+        <v>639</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7736,10 +7769,10 @@
         <v>65</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -7748,13 +7781,13 @@
         <v>3355</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7802,13 @@
         <v>4003</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>635</v>
+        <v>118</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -7784,13 +7817,13 @@
         <v>9780</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>114</v>
+        <v>645</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>72</v>
+        <v>647</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -7799,13 +7832,13 @@
         <v>13782</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7853,13 @@
         <v>48737</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="H48" s="7">
         <v>42</v>
@@ -7835,13 +7868,13 @@
         <v>42851</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="M48" s="7">
         <v>88</v>
@@ -7850,13 +7883,13 @@
         <v>91588</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>649</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,13 +7904,13 @@
         <v>118496</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>90</v>
+        <v>659</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="H49" s="7">
         <v>77</v>
@@ -7886,13 +7919,13 @@
         <v>79596</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="M49" s="7">
         <v>192</v>
@@ -7901,13 +7934,13 @@
         <v>198092</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,13 +7955,13 @@
         <v>154346</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="H50" s="7">
         <v>103</v>
@@ -7937,13 +7970,13 @@
         <v>108245</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="M50" s="7">
         <v>250</v>
@@ -7952,13 +7985,13 @@
         <v>262590</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,13 +8059,13 @@
         <v>49355</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>452</v>
+        <v>677</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>667</v>
+        <v>447</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="H52" s="7">
         <v>45</v>
@@ -8041,13 +8074,13 @@
         <v>47858</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>670</v>
+        <v>288</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>113</v>
+        <v>680</v>
       </c>
       <c r="M52" s="7">
         <v>87</v>
@@ -8056,13 +8089,13 @@
         <v>97213</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8110,13 @@
         <v>82695</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="H53" s="7">
         <v>64</v>
@@ -8092,13 +8125,13 @@
         <v>66098</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="M53" s="7">
         <v>139</v>
@@ -8107,13 +8140,13 @@
         <v>148792</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>241</v>
+        <v>690</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>680</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8161,13 @@
         <v>317423</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>211</v>
+        <v>692</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="H54" s="7">
         <v>238</v>
@@ -8143,13 +8176,13 @@
         <v>244633</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>684</v>
+        <v>156</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>254</v>
+        <v>696</v>
       </c>
       <c r="M54" s="7">
         <v>526</v>
@@ -8158,13 +8191,13 @@
         <v>562056</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>686</v>
+        <v>156</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8212,13 @@
         <v>393457</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="H55" s="7">
         <v>271</v>
@@ -8194,13 +8227,13 @@
         <v>272025</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="M55" s="7">
         <v>647</v>
@@ -8209,13 +8242,13 @@
         <v>665481</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8230,13 +8263,13 @@
         <v>579393</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="H56" s="7">
         <v>395</v>
@@ -8245,13 +8278,13 @@
         <v>406559</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="M56" s="7">
         <v>937</v>
@@ -8260,13 +8293,13 @@
         <v>985952</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,7 +8355,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CDF1D81-94BB-4E93-90CC-78339337E3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED533AF-5012-4639-A3DE-C375ADA85DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{281D72E1-0788-4373-B141-719624DB8073}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F9A53E6-B943-4435-A046-91CDC8BED19C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="712">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -93,2101 +93,2086 @@
     <t>2,84%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
     <t>35,96%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
 </sst>
 </file>
@@ -2599,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3194D41F-8348-477A-9460-2213146F7F69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02AF6E2-F3A9-494D-A67F-7113E6647B04}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3166,10 +3151,10 @@
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -3178,13 +3163,13 @@
         <v>34507</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3184,13 @@
         <v>115091</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -3214,13 +3199,13 @@
         <v>80362</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>177</v>
@@ -3229,13 +3214,13 @@
         <v>195454</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3235,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="7">
         <v>111</v>
@@ -3265,13 +3250,13 @@
         <v>122688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15" s="7">
         <v>272</v>
@@ -3280,18 +3265,18 @@
         <v>294928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3303,13 +3288,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3318,10 +3303,10 @@
         <v>2932</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>68</v>
@@ -3372,7 +3357,7 @@
         <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>76</v>
@@ -3558,13 +3543,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -3573,13 +3558,13 @@
         <v>82366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3588,13 +3573,13 @@
         <v>225567</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3611,13 @@
         <v>10540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -3641,13 +3626,13 @@
         <v>27817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3647,13 @@
         <v>9598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3677,13 +3662,13 @@
         <v>5883</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3692,13 +3677,13 @@
         <v>15481</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3698,13 @@
         <v>43187</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -3728,13 +3713,13 @@
         <v>43720</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -3743,13 +3728,13 @@
         <v>86907</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3749,13 @@
         <v>55510</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3779,13 +3764,13 @@
         <v>27540</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -3794,13 +3779,13 @@
         <v>83051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3800,13 @@
         <v>143957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -3830,13 +3815,13 @@
         <v>100950</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>226</v>
@@ -3845,13 +3830,13 @@
         <v>244907</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3851,13 @@
         <v>269529</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>173</v>
@@ -3881,13 +3866,13 @@
         <v>188633</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>426</v>
@@ -3896,18 +3881,18 @@
         <v>458163</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3919,10 +3904,10 @@
         <v>2768</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>153</v>
@@ -3934,13 +3919,13 @@
         <v>5782</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3949,13 +3934,13 @@
         <v>8550</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3955,13 @@
         <v>5641</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3985,13 +3970,13 @@
         <v>5906</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -4000,13 +3985,13 @@
         <v>11548</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4006,13 @@
         <v>17516</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4036,13 +4021,13 @@
         <v>11662</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4051,13 +4036,13 @@
         <v>29178</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4057,13 @@
         <v>14251</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -4087,13 +4072,13 @@
         <v>13594</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -4102,13 +4087,13 @@
         <v>27845</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4108,13 @@
         <v>42137</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4138,13 +4123,13 @@
         <v>18690</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -4153,13 +4138,13 @@
         <v>60827</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4159,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4189,13 +4174,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4204,18 +4189,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4227,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4242,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4257,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4263,13 @@
         <v>4850</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4293,13 +4278,13 @@
         <v>1046</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -4308,13 +4293,13 @@
         <v>5896</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4314,13 @@
         <v>18727</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4344,13 +4329,13 @@
         <v>10185</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -4359,13 +4344,13 @@
         <v>28912</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4365,13 @@
         <v>29776</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4395,13 +4380,13 @@
         <v>17133</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -4410,13 +4395,13 @@
         <v>46909</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4416,13 @@
         <v>64913</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -4446,13 +4431,13 @@
         <v>26927</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M38" s="7">
         <v>84</v>
@@ -4461,13 +4446,13 @@
         <v>91841</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4467,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4497,13 +4482,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4512,18 +4497,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4535,13 +4520,13 @@
         <v>4798</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -4568,10 +4553,10 @@
         <v>239</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4571,13 @@
         <v>7232</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -4607,7 +4592,7 @@
         <v>245</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
@@ -4616,13 +4601,13 @@
         <v>17182</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4622,13 @@
         <v>72739</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H42" s="7">
         <v>43</v>
@@ -4652,13 +4637,13 @@
         <v>46135</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M42" s="7">
         <v>111</v>
@@ -4667,13 +4652,13 @@
         <v>118875</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4673,13 @@
         <v>60356</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H43" s="7">
         <v>47</v>
@@ -4703,13 +4688,13 @@
         <v>50792</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M43" s="7">
         <v>106</v>
@@ -4718,10 +4703,10 @@
         <v>111149</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>266</v>
@@ -4769,13 +4754,13 @@
         <v>199068</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4775,13 @@
         <v>271971</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="7">
         <v>171</v>
@@ -4805,13 +4790,13 @@
         <v>182165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M45" s="7">
         <v>424</v>
@@ -4820,18 +4805,18 @@
         <v>454136</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4843,13 +4828,13 @@
         <v>8532</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4858,13 +4843,13 @@
         <v>1064</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M46" s="7">
         <v>9</v>
@@ -4873,13 +4858,13 @@
         <v>9596</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4879,13 @@
         <v>13531</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4909,13 +4894,13 @@
         <v>15756</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="M47" s="7">
         <v>25</v>
@@ -4924,13 +4909,13 @@
         <v>29287</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4930,13 @@
         <v>52908</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H48" s="7">
         <v>44</v>
@@ -4960,7 +4945,7 @@
         <v>50614</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>295</v>
@@ -5098,13 +5083,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51" s="7">
         <v>235</v>
@@ -5113,13 +5098,13 @@
         <v>259575</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M51" s="7">
         <v>572</v>
@@ -5128,13 +5113,13 @@
         <v>621807</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,10 +5154,10 @@
         <v>321</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M52" s="7">
         <v>65</v>
@@ -5181,13 +5166,13 @@
         <v>67701</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5187,13 @@
         <v>59285</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H53" s="7">
         <v>38</v>
@@ -5217,13 +5202,13 @@
         <v>43557</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M53" s="7">
         <v>93</v>
@@ -5232,13 +5217,13 @@
         <v>102841</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5238,13 @@
         <v>256855</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H54" s="7">
         <v>187</v>
@@ -5268,13 +5253,13 @@
         <v>204294</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="K54" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M54" s="7">
         <v>431</v>
@@ -5283,13 +5268,13 @@
         <v>461149</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>343</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5289,13 @@
         <v>351462</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H55" s="7">
         <v>214</v>
@@ -5319,13 +5304,13 @@
         <v>223944</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M55" s="7">
         <v>547</v>
@@ -5334,13 +5319,13 @@
         <v>575406</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>345</v>
+        <v>86</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5340,13 @@
         <v>712947</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H56" s="7">
         <v>407</v>
@@ -5370,13 +5355,13 @@
         <v>446062</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M56" s="7">
         <v>1071</v>
@@ -5385,13 +5370,13 @@
         <v>1159009</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5391,13 @@
         <v>1419752</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="7">
         <v>874</v>
@@ -5421,13 +5406,13 @@
         <v>946354</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M57" s="7">
         <v>2207</v>
@@ -5436,18 +5421,18 @@
         <v>2366106</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5471,7 +5456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E307104-BE98-40DB-B669-05F1D84F3B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77909F85-3DC7-4B95-95B1-9BEE8BF42942}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5488,7 +5473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5595,13 +5580,13 @@
         <v>7406</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>361</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5610,13 +5595,13 @@
         <v>4473</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5625,13 +5610,13 @@
         <v>11879</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5631,13 @@
         <v>14488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5661,13 +5646,13 @@
         <v>7014</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>371</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5676,13 +5661,13 @@
         <v>21502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5682,13 @@
         <v>33430</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -5712,13 +5697,13 @@
         <v>27677</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -5727,13 +5712,13 @@
         <v>61108</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5733,13 @@
         <v>24290</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5763,13 +5748,13 @@
         <v>18128</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -5778,13 +5763,13 @@
         <v>42418</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5784,13 @@
         <v>56551</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5814,13 +5799,13 @@
         <v>43683</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -5829,13 +5814,13 @@
         <v>100235</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5835,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5865,13 +5850,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5880,13 +5865,13 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5888,13 @@
         <v>4185</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5933,10 +5918,10 @@
         <v>11310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>409</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>410</v>
@@ -5969,13 +5954,13 @@
         <v>3079</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5984,13 +5969,13 @@
         <v>10451</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +5990,13 @@
         <v>35127</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -6020,10 +6005,10 @@
         <v>19901</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>422</v>
@@ -6086,13 +6071,13 @@
         <v>58423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6092,13 @@
         <v>83536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -6122,13 +6107,13 @@
         <v>65230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -6137,13 +6122,13 @@
         <v>148766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6143,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6173,13 +6158,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6188,18 +6173,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6211,13 +6196,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6226,13 +6211,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6241,13 +6226,13 @@
         <v>5276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6247,13 @@
         <v>865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>450</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6277,13 +6262,13 @@
         <v>845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -6292,13 +6277,13 @@
         <v>1710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6298,13 @@
         <v>24945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -6328,13 +6313,13 @@
         <v>19354</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -6343,13 +6328,13 @@
         <v>44300</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>156</v>
+        <v>463</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>221</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6349,13 @@
         <v>51825</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6379,13 +6364,13 @@
         <v>28341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -6394,13 +6379,13 @@
         <v>80166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6400,13 @@
         <v>45371</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -6430,13 +6415,13 @@
         <v>33894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -6445,13 +6430,13 @@
         <v>79265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,13 +6451,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6481,13 +6466,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6496,13 +6481,13 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6504,13 @@
         <v>9037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6534,13 +6519,13 @@
         <v>8177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -6549,13 +6534,13 @@
         <v>17214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6555,13 @@
         <v>2957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -6585,13 +6570,13 @@
         <v>2137</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6600,13 +6585,13 @@
         <v>5095</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6606,13 @@
         <v>14037</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -6636,13 +6621,13 @@
         <v>14043</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -6651,13 +6636,13 @@
         <v>28080</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6657,13 @@
         <v>14043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6687,13 +6672,13 @@
         <v>9838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6702,13 +6687,13 @@
         <v>23881</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6708,13 @@
         <v>72106</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -6738,13 +6723,13 @@
         <v>47663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M26" s="7">
         <v>116</v>
@@ -6753,13 +6738,13 @@
         <v>119769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,13 +6759,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6789,13 +6774,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6804,18 +6789,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6827,13 +6812,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6842,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6857,13 +6842,13 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>284</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6863,13 @@
         <v>1020</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6893,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -6908,13 +6893,13 @@
         <v>1020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6914,13 @@
         <v>11685</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -6944,13 +6929,13 @@
         <v>10984</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -6959,13 +6944,13 @@
         <v>22669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6965,13 @@
         <v>36644</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -6995,13 +6980,13 @@
         <v>28715</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -7010,13 +6995,13 @@
         <v>65359</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7016,13 @@
         <v>30624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -7046,13 +7031,13 @@
         <v>15719</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -7061,13 +7046,13 @@
         <v>46343</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,13 +7067,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -7097,13 +7082,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7112,18 +7097,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7135,13 +7120,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7150,13 +7135,13 @@
         <v>873</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>556</v>
+        <v>67</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7165,13 +7150,13 @@
         <v>873</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7171,13 @@
         <v>11006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -7201,13 +7186,13 @@
         <v>10953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>564</v>
+        <v>204</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -7216,13 +7201,13 @@
         <v>21960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7222,13 @@
         <v>23765</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>190</v>
+        <v>572</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -7252,13 +7237,13 @@
         <v>14191</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -7267,13 +7252,13 @@
         <v>37957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7273,13 @@
         <v>39415</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -7303,13 +7288,13 @@
         <v>29329</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -7318,13 +7303,13 @@
         <v>68744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7324,13 @@
         <v>33315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -7354,13 +7339,13 @@
         <v>20222</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>588</v>
+        <v>388</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>589</v>
+        <v>480</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -7369,13 +7354,13 @@
         <v>53538</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>591</v>
+        <v>460</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +7375,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7405,13 +7390,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7420,18 +7405,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7443,13 +7428,13 @@
         <v>21038</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>594</v>
+        <v>163</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -7458,13 +7443,13 @@
         <v>25312</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M40" s="7">
         <v>42</v>
@@ -7473,13 +7458,13 @@
         <v>46350</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7479,13 @@
         <v>40982</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H41" s="7">
         <v>31</v>
@@ -7509,13 +7494,13 @@
         <v>32291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -7524,13 +7509,13 @@
         <v>73273</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7530,13 @@
         <v>125697</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H42" s="7">
         <v>91</v>
@@ -7560,13 +7545,13 @@
         <v>95630</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M42" s="7">
         <v>196</v>
@@ -7575,13 +7560,13 @@
         <v>221327</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>467</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,13 +7581,13 @@
         <v>68666</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H43" s="7">
         <v>59</v>
@@ -7611,13 +7596,13 @@
         <v>59731</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M43" s="7">
         <v>121</v>
@@ -7626,13 +7611,13 @@
         <v>128397</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,13 +7632,13 @@
         <v>103543</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -7662,13 +7647,13 @@
         <v>71902</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M44" s="7">
         <v>160</v>
@@ -7677,13 +7662,13 @@
         <v>175446</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7683,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7713,13 +7698,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7728,18 +7713,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7751,13 +7736,13 @@
         <v>3355</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>637</v>
+        <v>497</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7766,13 +7751,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>240</v>
+        <v>641</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -7781,13 +7766,13 @@
         <v>3355</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>642</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7787,13 @@
         <v>4003</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>118</v>
+        <v>644</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -7817,13 +7802,13 @@
         <v>9780</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>647</v>
+        <v>204</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -7832,7 +7817,7 @@
         <v>13782</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>648</v>
+        <v>563</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>649</v>
@@ -7868,13 +7853,13 @@
         <v>42851</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="M48" s="7">
         <v>88</v>
@@ -7883,13 +7868,13 @@
         <v>91588</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="P48" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q48" s="7" t="s">
-        <v>658</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,13 +7889,13 @@
         <v>118496</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="H49" s="7">
         <v>77</v>
@@ -7919,13 +7904,13 @@
         <v>79596</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="M49" s="7">
         <v>192</v>
@@ -7934,13 +7919,13 @@
         <v>198092</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7940,13 @@
         <v>154346</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>670</v>
       </c>
       <c r="H50" s="7">
         <v>103</v>
@@ -7970,13 +7955,13 @@
         <v>108245</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>673</v>
       </c>
       <c r="M50" s="7">
         <v>250</v>
@@ -7985,13 +7970,13 @@
         <v>262590</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,13 +7991,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -8021,13 +8006,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -8036,13 +8021,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8044,13 @@
         <v>49355</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="H52" s="7">
         <v>45</v>
@@ -8074,10 +8059,10 @@
         <v>47858</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>680</v>
@@ -8092,10 +8077,10 @@
         <v>681</v>
       </c>
       <c r="P52" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8095,13 @@
         <v>82695</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>685</v>
-      </c>
       <c r="G53" s="7" t="s">
-        <v>686</v>
+        <v>600</v>
       </c>
       <c r="H53" s="7">
         <v>64</v>
@@ -8125,13 +8110,13 @@
         <v>66098</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>687</v>
+        <v>19</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="M53" s="7">
         <v>139</v>
@@ -8140,13 +8125,13 @@
         <v>148792</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>690</v>
+        <v>76</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>45</v>
+        <v>688</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8146,13 @@
         <v>317423</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H54" s="7">
         <v>238</v>
@@ -8176,13 +8161,13 @@
         <v>244633</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>156</v>
+        <v>693</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M54" s="7">
         <v>526</v>
@@ -8191,13 +8176,13 @@
         <v>562056</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>156</v>
+        <v>693</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,13 +8197,13 @@
         <v>393457</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>700</v>
+        <v>633</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H55" s="7">
         <v>271</v>
@@ -8227,13 +8212,13 @@
         <v>272025</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>702</v>
+        <v>626</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="M55" s="7">
         <v>647</v>
@@ -8242,13 +8227,13 @@
         <v>665481</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8248,13 @@
         <v>579393</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H56" s="7">
         <v>395</v>
@@ -8278,13 +8263,13 @@
         <v>406559</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M56" s="7">
         <v>937</v>
@@ -8293,13 +8278,13 @@
         <v>985952</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>714</v>
+        <v>105</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,13 +8299,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8329,13 +8314,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8344,18 +8329,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED533AF-5012-4639-A3DE-C375ADA85DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2AA1E1-F455-405B-9D08-56A45E31481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F9A53E6-B943-4435-A046-91CDC8BED19C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBF00AE8-0FD5-4AB7-A52E-14BD1765CC9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="706">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -93,2086 +93,2068 @@
     <t>2,84%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
 </sst>
 </file>
@@ -2584,7 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02AF6E2-F3A9-494D-A67F-7113E6647B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3D1920-D27E-453B-A6CE-921146AE9D78}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3151,10 +3133,10 @@
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -3163,13 +3145,13 @@
         <v>34507</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3166,13 @@
         <v>115091</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -3199,13 +3181,13 @@
         <v>80362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>177</v>
@@ -3214,13 +3196,13 @@
         <v>195454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3217,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>111</v>
@@ -3250,13 +3232,13 @@
         <v>122688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
         <v>272</v>
@@ -3265,18 +3247,18 @@
         <v>294928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3288,13 +3270,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3303,13 +3285,13 @@
         <v>2932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3318,7 +3300,7 @@
         <v>3867</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>70</v>
@@ -3342,10 +3324,10 @@
         <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3354,13 +3336,13 @@
         <v>986</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3369,13 +3351,13 @@
         <v>11595</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3372,13 @@
         <v>26535</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -3405,13 +3387,13 @@
         <v>24113</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -3420,13 +3402,13 @@
         <v>50648</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3423,13 @@
         <v>39818</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -3456,13 +3438,13 @@
         <v>14110</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -3471,13 +3453,13 @@
         <v>53929</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3474,13 @@
         <v>65303</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3507,13 +3489,13 @@
         <v>40225</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>104</v>
@@ -3522,13 +3504,13 @@
         <v>105528</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3525,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -3558,13 +3540,13 @@
         <v>82366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3573,18 +3555,18 @@
         <v>225567</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3596,13 +3578,13 @@
         <v>17277</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3611,13 +3593,13 @@
         <v>10540</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -3626,7 +3608,7 @@
         <v>27817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>114</v>
@@ -3647,7 +3629,7 @@
         <v>9598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>116</v>
@@ -3767,10 +3749,10 @@
         <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -3779,13 +3761,13 @@
         <v>83051</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3782,13 @@
         <v>143957</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -3815,13 +3797,13 @@
         <v>100950</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>226</v>
@@ -3830,13 +3812,13 @@
         <v>244907</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3833,13 @@
         <v>269529</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>173</v>
@@ -3866,13 +3848,13 @@
         <v>188633</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>426</v>
@@ -3881,18 +3863,18 @@
         <v>458163</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3904,10 +3886,10 @@
         <v>2768</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>153</v>
@@ -3919,10 +3901,10 @@
         <v>5782</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>155</v>
@@ -3937,10 +3919,10 @@
         <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3937,13 @@
         <v>5641</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3970,13 +3952,13 @@
         <v>5906</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3985,13 +3967,13 @@
         <v>11548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3988,13 @@
         <v>17516</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4021,13 +4003,13 @@
         <v>11662</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4036,13 +4018,13 @@
         <v>29178</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4039,13 @@
         <v>14251</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -4072,13 +4054,13 @@
         <v>13594</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -4087,13 +4069,13 @@
         <v>27845</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4090,13 @@
         <v>42137</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4123,13 +4105,13 @@
         <v>18690</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -4138,13 +4120,13 @@
         <v>60827</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4141,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4174,13 +4156,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4189,13 +4171,13 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>193</v>
@@ -4227,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>193</v>
@@ -4242,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4245,13 @@
         <v>4850</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4278,13 +4260,13 @@
         <v>1046</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -4293,13 +4275,13 @@
         <v>5896</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4296,13 @@
         <v>18727</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4329,13 +4311,13 @@
         <v>10185</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -4344,13 +4326,13 @@
         <v>28912</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4347,13 @@
         <v>29776</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4380,13 +4362,13 @@
         <v>17133</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -4395,13 +4377,13 @@
         <v>46909</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4398,13 @@
         <v>64913</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -4431,13 +4413,13 @@
         <v>26927</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>84</v>
@@ -4446,13 +4428,13 @@
         <v>91841</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4449,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4482,13 +4464,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4497,18 +4479,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4520,13 +4502,13 @@
         <v>4798</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -4535,13 +4517,13 @@
         <v>3065</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -4550,13 +4532,13 @@
         <v>7863</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4553,13 @@
         <v>7232</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -4586,13 +4568,13 @@
         <v>9950</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
@@ -4601,13 +4583,13 @@
         <v>17182</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4604,13 @@
         <v>72739</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H42" s="7">
         <v>43</v>
@@ -4637,13 +4619,13 @@
         <v>46135</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M42" s="7">
         <v>111</v>
@@ -4652,13 +4634,13 @@
         <v>118875</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4655,13 @@
         <v>60356</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H43" s="7">
         <v>47</v>
@@ -4688,13 +4670,13 @@
         <v>50792</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M43" s="7">
         <v>106</v>
@@ -4703,13 +4685,13 @@
         <v>111149</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4706,13 @@
         <v>126845</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -4739,13 +4721,13 @@
         <v>72222</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M44" s="7">
         <v>184</v>
@@ -4754,7 +4736,7 @@
         <v>199068</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>273</v>
@@ -4775,13 +4757,13 @@
         <v>271971</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H45" s="7">
         <v>171</v>
@@ -4790,13 +4772,13 @@
         <v>182165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M45" s="7">
         <v>424</v>
@@ -4805,13 +4787,13 @@
         <v>454136</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,7 +4813,7 @@
         <v>276</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>277</v>
@@ -4846,7 +4828,7 @@
         <v>278</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>279</v>
@@ -4894,7 +4876,7 @@
         <v>15756</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>286</v>
@@ -4930,13 +4912,13 @@
         <v>52908</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H48" s="7">
         <v>44</v>
@@ -4945,13 +4927,13 @@
         <v>50614</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M48" s="7">
         <v>92</v>
@@ -4960,13 +4942,13 @@
         <v>103523</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4963,13 @@
         <v>132561</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -4996,13 +4978,13 @@
         <v>85456</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M49" s="7">
         <v>205</v>
@@ -5011,13 +4993,13 @@
         <v>218016</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5014,13 @@
         <v>154701</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H50" s="7">
         <v>96</v>
@@ -5047,13 +5029,13 @@
         <v>106684</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M50" s="7">
         <v>241</v>
@@ -5062,13 +5044,13 @@
         <v>261385</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5065,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="7">
         <v>235</v>
@@ -5098,13 +5080,13 @@
         <v>259575</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M51" s="7">
         <v>572</v>
@@ -5113,13 +5095,13 @@
         <v>621807</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5118,13 @@
         <v>39203</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H52" s="7">
         <v>28</v>
@@ -5151,10 +5133,10 @@
         <v>28497</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>322</v>
@@ -5166,13 +5148,13 @@
         <v>67701</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,10 +5169,10 @@
         <v>59285</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>327</v>
@@ -5217,13 +5199,13 @@
         <v>102841</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5220,13 @@
         <v>256855</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H54" s="7">
         <v>187</v>
@@ -5253,13 +5235,13 @@
         <v>204294</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M54" s="7">
         <v>431</v>
@@ -5268,13 +5250,13 @@
         <v>461149</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,10 +5304,10 @@
         <v>347</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>86</v>
+        <v>348</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5322,13 @@
         <v>712947</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H56" s="7">
         <v>407</v>
@@ -5355,13 +5337,13 @@
         <v>446062</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M56" s="7">
         <v>1071</v>
@@ -5370,13 +5352,13 @@
         <v>1159009</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5373,13 @@
         <v>1419752</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H57" s="7">
         <v>874</v>
@@ -5406,13 +5388,13 @@
         <v>946354</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M57" s="7">
         <v>2207</v>
@@ -5421,18 +5403,18 @@
         <v>2366106</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77909F85-3DC7-4B95-95B1-9BEE8BF42942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBDB2AD-77D5-44FE-9CBC-2E1EEA8EE6A6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5473,7 +5455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5580,13 +5562,13 @@
         <v>7406</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>363</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5595,13 +5577,13 @@
         <v>4473</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5610,13 +5592,13 @@
         <v>11879</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5613,13 @@
         <v>14488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5646,13 +5628,13 @@
         <v>7014</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5661,13 +5643,13 @@
         <v>21502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5664,13 @@
         <v>33430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -5697,13 +5679,13 @@
         <v>27677</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -5712,13 +5694,13 @@
         <v>61108</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5715,13 @@
         <v>24290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5748,13 +5730,13 @@
         <v>18128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -5763,13 +5745,13 @@
         <v>42418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5766,13 @@
         <v>56551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5799,13 +5781,13 @@
         <v>43683</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -5814,13 +5796,13 @@
         <v>100235</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5817,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5850,13 +5832,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5865,13 +5847,13 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5870,13 @@
         <v>4185</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5903,10 +5885,10 @@
         <v>7125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>407</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>408</v>
@@ -5921,10 +5903,10 @@
         <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5921,13 @@
         <v>7372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5954,13 +5936,13 @@
         <v>3079</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5969,13 +5951,13 @@
         <v>10451</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +5972,13 @@
         <v>35127</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -6005,13 +5987,13 @@
         <v>19901</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -6020,13 +6002,13 @@
         <v>55027</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6023,13 @@
         <v>40077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6056,13 +6038,13 @@
         <v>18346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -6071,13 +6053,13 @@
         <v>58423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6074,13 @@
         <v>83536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -6107,13 +6089,13 @@
         <v>65230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -6122,13 +6104,13 @@
         <v>148766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6125,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6158,13 +6140,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6173,18 +6155,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6178,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6211,13 +6193,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6226,7 +6208,7 @@
         <v>5276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>449</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>450</v>
@@ -6247,10 +6229,10 @@
         <v>865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>452</v>
@@ -6265,7 +6247,7 @@
         <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>454</v>
@@ -6280,7 +6262,7 @@
         <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>456</v>
@@ -6385,7 +6367,7 @@
         <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,7 +6382,7 @@
         <v>45371</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>475</v>
@@ -6433,10 +6415,10 @@
         <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6433,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6466,13 +6448,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6481,18 +6463,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6504,13 +6486,13 @@
         <v>9037</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6519,13 +6501,13 @@
         <v>8177</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -6534,13 +6516,13 @@
         <v>17214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6537,13 @@
         <v>2957</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -6570,13 +6552,13 @@
         <v>2137</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6585,13 +6567,13 @@
         <v>5095</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>111</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6588,13 @@
         <v>14037</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -6621,13 +6603,13 @@
         <v>14043</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -6636,13 +6618,13 @@
         <v>28080</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6639,13 @@
         <v>14043</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6672,13 +6654,13 @@
         <v>9838</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6687,13 +6669,13 @@
         <v>23881</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>514</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6690,13 @@
         <v>72106</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -6723,13 +6705,13 @@
         <v>47663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>520</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M26" s="7">
         <v>116</v>
@@ -6738,13 +6720,13 @@
         <v>119769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6741,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6774,13 +6756,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6789,18 +6771,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6812,13 +6794,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6827,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6842,13 +6824,13 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6845,13 @@
         <v>1020</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6878,13 +6860,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -6893,13 +6875,13 @@
         <v>1020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>532</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6896,13 @@
         <v>11685</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -6929,13 +6911,13 @@
         <v>10984</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>538</v>
+        <v>430</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -6944,13 +6926,13 @@
         <v>22669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6947,13 @@
         <v>36644</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -6980,13 +6962,13 @@
         <v>28715</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -6995,13 +6977,13 @@
         <v>65359</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +6998,13 @@
         <v>30624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -7031,13 +7013,13 @@
         <v>15719</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -7046,13 +7028,13 @@
         <v>46343</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7049,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -7082,13 +7064,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7097,13 +7079,13 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7102,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>560</v>
+        <v>362</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7135,13 +7117,13 @@
         <v>873</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>561</v>
+        <v>117</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7150,13 +7132,13 @@
         <v>873</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7153,13 @@
         <v>11006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -7186,13 +7168,13 @@
         <v>10953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>204</v>
+        <v>417</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -7201,13 +7183,13 @@
         <v>21960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7204,13 @@
         <v>23765</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -7237,13 +7219,13 @@
         <v>14191</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -7252,13 +7234,13 @@
         <v>37957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7255,13 @@
         <v>39415</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>582</v>
+        <v>343</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -7288,13 +7270,13 @@
         <v>29329</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -7303,13 +7285,13 @@
         <v>68744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7306,13 @@
         <v>33315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -7339,13 +7321,13 @@
         <v>20222</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>388</v>
+        <v>584</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>480</v>
+        <v>585</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -7354,13 +7336,13 @@
         <v>53538</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>460</v>
+        <v>587</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7357,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7390,13 +7372,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7405,18 +7387,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7428,13 +7410,13 @@
         <v>21038</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>163</v>
+        <v>590</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -7443,13 +7425,13 @@
         <v>25312</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>599</v>
+        <v>297</v>
       </c>
       <c r="M40" s="7">
         <v>42</v>
@@ -7458,13 +7440,13 @@
         <v>46350</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7461,13 @@
         <v>40982</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H41" s="7">
         <v>31</v>
@@ -7494,13 +7476,13 @@
         <v>32291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -7509,13 +7491,13 @@
         <v>73273</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>611</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7512,13 @@
         <v>125697</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>612</v>
+        <v>214</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H42" s="7">
         <v>91</v>
@@ -7545,13 +7527,13 @@
         <v>95630</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="M42" s="7">
         <v>196</v>
@@ -7560,13 +7542,13 @@
         <v>221327</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7563,13 @@
         <v>68666</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H43" s="7">
         <v>59</v>
@@ -7596,13 +7578,13 @@
         <v>59731</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="M43" s="7">
         <v>121</v>
@@ -7611,13 +7593,13 @@
         <v>128397</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7614,13 @@
         <v>103543</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>630</v>
+        <v>87</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -7647,13 +7629,13 @@
         <v>71902</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="M44" s="7">
         <v>160</v>
@@ -7662,13 +7644,13 @@
         <v>175446</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7665,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7698,13 +7680,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7713,13 +7695,13 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7718,13 @@
         <v>3355</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>497</v>
+        <v>630</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>640</v>
+        <v>118</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7751,13 +7733,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>641</v>
+        <v>30</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -7766,13 +7748,13 @@
         <v>3355</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>69</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7769,13 @@
         <v>4003</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -7802,13 +7784,13 @@
         <v>9780</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>647</v>
+        <v>114</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -7817,13 +7799,13 @@
         <v>13782</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7820,13 @@
         <v>48737</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="H48" s="7">
         <v>42</v>
@@ -7853,13 +7835,13 @@
         <v>42851</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>340</v>
+        <v>645</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="M48" s="7">
         <v>88</v>
@@ -7868,13 +7850,13 @@
         <v>91588</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>380</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,13 +7871,13 @@
         <v>118496</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>658</v>
+        <v>90</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="H49" s="7">
         <v>77</v>
@@ -7904,13 +7886,13 @@
         <v>79596</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="M49" s="7">
         <v>192</v>
@@ -7919,13 +7901,13 @@
         <v>198092</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,13 +7922,13 @@
         <v>154346</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="H50" s="7">
         <v>103</v>
@@ -7955,13 +7937,13 @@
         <v>108245</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="M50" s="7">
         <v>250</v>
@@ -7970,13 +7952,13 @@
         <v>262590</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7991,13 +7973,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -8006,13 +7988,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -8021,13 +8003,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8026,13 @@
         <v>49355</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>676</v>
+        <v>452</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>403</v>
+        <v>667</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="H52" s="7">
         <v>45</v>
@@ -8059,13 +8041,13 @@
         <v>47858</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>680</v>
+        <v>113</v>
       </c>
       <c r="M52" s="7">
         <v>87</v>
@@ -8074,13 +8056,13 @@
         <v>97213</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>240</v>
+        <v>672</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8077,13 @@
         <v>82695</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="H53" s="7">
         <v>64</v>
@@ -8110,13 +8092,13 @@
         <v>66098</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>19</v>
+        <v>677</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="M53" s="7">
         <v>139</v>
@@ -8125,13 +8107,13 @@
         <v>148792</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8128,13 @@
         <v>317423</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>689</v>
+        <v>211</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="H54" s="7">
         <v>238</v>
@@ -8161,13 +8143,13 @@
         <v>244633</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>694</v>
+        <v>254</v>
       </c>
       <c r="M54" s="7">
         <v>526</v>
@@ -8176,13 +8158,13 @@
         <v>562056</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8179,13 @@
         <v>393457</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>633</v>
+        <v>689</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="H55" s="7">
         <v>271</v>
@@ -8212,13 +8194,13 @@
         <v>272025</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>626</v>
+        <v>691</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="M55" s="7">
         <v>647</v>
@@ -8227,13 +8209,13 @@
         <v>665481</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,13 +8230,13 @@
         <v>579393</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="H56" s="7">
         <v>395</v>
@@ -8263,13 +8245,13 @@
         <v>406559</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="M56" s="7">
         <v>937</v>
@@ -8278,13 +8260,13 @@
         <v>985952</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>105</v>
+        <v>703</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,13 +8281,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8314,13 +8296,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8329,18 +8311,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2AA1E1-F455-405B-9D08-56A45E31481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C694476E-5E9B-4F38-BAC4-5075A2AC221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBF00AE8-0FD5-4AB7-A52E-14BD1765CC9A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B5C2420-64CD-43BF-BE3F-E43BCB736BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="745">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -72,21 +72,156 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
   </si>
   <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
     <t>Muchas veces</t>
   </si>
   <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -225,9 +360,6 @@
     <t>71,67%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -315,9 +447,6 @@
     <t>17,13%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
     <t>26,24%</t>
   </si>
   <si>
@@ -360,1599 +489,1593 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
     <t>1,91%</t>
   </si>
   <si>
@@ -2019,9 +2142,6 @@
     <t>41,19%</t>
   </si>
   <si>
-    <t>52,29%</t>
-  </si>
-  <si>
     <t>45,01%</t>
   </si>
   <si>
@@ -2062,9 +2182,6 @@
   </si>
   <si>
     <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
   </si>
   <si>
     <t>7,24%</t>
@@ -2566,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3D1920-D27E-453B-A6CE-921146AE9D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263DECC1-2B06-4981-8888-0950EDDC23E1}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2684,223 +2801,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16262</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10540</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N4" s="7">
+        <v>26802</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7541</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3440</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="7">
+        <v>10981</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22512</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18599</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="N6" s="7">
+        <v>41111</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12447</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9054</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N7" s="7">
+        <v>21501</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>68078</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I8" s="7">
+        <v>45630</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="N8" s="7">
+        <v>113707</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,48 +3056,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D9" s="7">
+        <v>126840</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="I9" s="7">
+        <v>87263</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="N9" s="7">
+        <v>214103</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2962,13 +3115,13 @@
         <v>4893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2977,13 +3130,13 @@
         <v>5115</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2992,19 +3145,19 @@
         <v>10008</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
@@ -3013,13 +3166,13 @@
         <v>7823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3028,13 +3181,13 @@
         <v>4029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -3043,19 +3196,19 @@
         <v>11852</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>24</v>
@@ -3064,13 +3217,13 @@
         <v>25243</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -3079,13 +3232,13 @@
         <v>17864</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -3094,19 +3247,19 @@
         <v>43107</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>19</v>
@@ -3115,13 +3268,13 @@
         <v>19190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3130,13 +3283,13 @@
         <v>15318</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -3145,19 +3298,19 @@
         <v>34507</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>105</v>
@@ -3166,13 +3319,13 @@
         <v>115091</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -3181,13 +3334,13 @@
         <v>80362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>177</v>
@@ -3196,13 +3349,13 @@
         <v>195454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3370,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>111</v>
@@ -3232,13 +3385,13 @@
         <v>122688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>272</v>
@@ -3247,18 +3400,18 @@
         <v>294928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3423,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3285,13 +3438,13 @@
         <v>2932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3300,19 +3453,19 @@
         <v>3867</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
@@ -3321,13 +3474,13 @@
         <v>10609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3336,13 +3489,13 @@
         <v>986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3351,19 +3504,19 @@
         <v>11595</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>28</v>
@@ -3372,13 +3525,13 @@
         <v>26535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -3387,13 +3540,13 @@
         <v>24113</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -3402,19 +3555,19 @@
         <v>50648</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>39</v>
@@ -3423,13 +3576,13 @@
         <v>39818</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -3438,13 +3591,13 @@
         <v>14110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -3453,19 +3606,19 @@
         <v>53929</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>67</v>
@@ -3474,13 +3627,13 @@
         <v>65303</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3489,13 +3642,13 @@
         <v>40225</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>104</v>
@@ -3504,13 +3657,13 @@
         <v>105528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3678,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -3540,13 +3693,13 @@
         <v>82366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3555,270 +3708,270 @@
         <v>225567</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>17277</v>
+        <v>1015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>10540</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>27817</v>
+        <v>1015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>9598</v>
+        <v>2057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>5883</v>
+        <v>2443</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>15481</v>
+        <v>4500</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>43187</v>
+        <v>20675</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I24" s="7">
-        <v>43720</v>
+        <v>25121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N24" s="7">
-        <v>86907</v>
+        <v>45796</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7">
-        <v>55510</v>
+        <v>43063</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>27540</v>
+        <v>18486</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="N25" s="7">
-        <v>83051</v>
+        <v>61549</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7">
-        <v>143957</v>
+        <v>75879</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>100950</v>
+        <v>55320</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="N26" s="7">
-        <v>244907</v>
+        <v>131199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,54 +3980,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>269529</v>
+        <v>142689</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="I27" s="7">
-        <v>188633</v>
+        <v>101370</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>426</v>
+        <v>226</v>
       </c>
       <c r="N27" s="7">
-        <v>458163</v>
+        <v>244059</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3886,13 +4039,13 @@
         <v>2768</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -3901,13 +4054,13 @@
         <v>5782</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3916,19 +4069,19 @@
         <v>8550</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>5</v>
@@ -3937,13 +4090,13 @@
         <v>5641</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3952,13 +4105,13 @@
         <v>5906</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3967,19 +4120,19 @@
         <v>11548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>17</v>
@@ -3988,13 +4141,13 @@
         <v>17516</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4003,13 +4156,13 @@
         <v>11662</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -4018,19 +4171,19 @@
         <v>29178</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>13</v>
@@ -4039,13 +4192,13 @@
         <v>14251</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -4054,13 +4207,13 @@
         <v>13594</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -4069,19 +4222,19 @@
         <v>27845</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>37</v>
@@ -4090,13 +4243,13 @@
         <v>42137</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4105,13 +4258,13 @@
         <v>18690</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -4120,13 +4273,13 @@
         <v>60827</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4294,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4156,13 +4309,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4171,18 +4324,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4194,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4209,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4224,19 +4377,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -4245,13 +4398,13 @@
         <v>4850</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4260,13 +4413,13 @@
         <v>1046</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -4275,19 +4428,19 @@
         <v>5896</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>19</v>
@@ -4296,13 +4449,13 @@
         <v>18727</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4311,13 +4464,13 @@
         <v>10185</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -4326,19 +4479,19 @@
         <v>28912</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>25</v>
@@ -4347,13 +4500,13 @@
         <v>29776</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4362,13 +4515,13 @@
         <v>17133</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -4377,19 +4530,19 @@
         <v>46909</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>60</v>
@@ -4398,13 +4551,13 @@
         <v>64913</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -4413,13 +4566,13 @@
         <v>26927</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>84</v>
@@ -4428,13 +4581,13 @@
         <v>91841</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4602,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4464,13 +4617,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4479,18 +4632,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4502,13 +4655,13 @@
         <v>4798</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -4517,13 +4670,13 @@
         <v>3065</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -4532,19 +4685,19 @@
         <v>7863</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>6</v>
@@ -4553,13 +4706,13 @@
         <v>7232</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -4568,13 +4721,13 @@
         <v>9950</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
@@ -4583,19 +4736,19 @@
         <v>17182</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>68</v>
@@ -4604,13 +4757,13 @@
         <v>72739</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>43</v>
@@ -4619,13 +4772,13 @@
         <v>46135</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>111</v>
@@ -4634,19 +4787,19 @@
         <v>118875</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>59</v>
@@ -4655,13 +4808,13 @@
         <v>60356</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="H43" s="7">
         <v>47</v>
@@ -4670,13 +4823,13 @@
         <v>50792</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="M43" s="7">
         <v>106</v>
@@ -4685,19 +4838,19 @@
         <v>111149</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>115</v>
@@ -4706,13 +4859,13 @@
         <v>126845</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -4721,13 +4874,13 @@
         <v>72222</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>184</v>
@@ -4736,13 +4889,13 @@
         <v>199068</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4910,13 @@
         <v>271971</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>171</v>
@@ -4772,13 +4925,13 @@
         <v>182165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>424</v>
@@ -4787,18 +4940,18 @@
         <v>454136</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4810,13 +4963,13 @@
         <v>8532</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4825,13 +4978,13 @@
         <v>1064</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>9</v>
@@ -4840,19 +4993,19 @@
         <v>9596</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>12</v>
@@ -4861,13 +5014,13 @@
         <v>13531</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4876,13 +5029,13 @@
         <v>15756</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>25</v>
@@ -4891,19 +5044,19 @@
         <v>29287</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>48</v>
@@ -4912,13 +5065,13 @@
         <v>52908</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="H48" s="7">
         <v>44</v>
@@ -4927,13 +5080,13 @@
         <v>50614</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="M48" s="7">
         <v>92</v>
@@ -4942,19 +5095,19 @@
         <v>103523</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>124</v>
@@ -4963,13 +5116,13 @@
         <v>132561</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -4978,13 +5131,13 @@
         <v>85456</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="M49" s="7">
         <v>205</v>
@@ -4993,19 +5146,19 @@
         <v>218016</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>145</v>
@@ -5014,13 +5167,13 @@
         <v>154701</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="H50" s="7">
         <v>96</v>
@@ -5029,13 +5182,13 @@
         <v>106684</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="M50" s="7">
         <v>241</v>
@@ -5044,13 +5197,13 @@
         <v>261385</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5218,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>235</v>
@@ -5080,13 +5233,13 @@
         <v>259575</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>572</v>
@@ -5095,13 +5248,13 @@
         <v>621807</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5271,13 @@
         <v>39203</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="H52" s="7">
         <v>28</v>
@@ -5133,13 +5286,13 @@
         <v>28497</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="M52" s="7">
         <v>65</v>
@@ -5148,19 +5301,19 @@
         <v>67701</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>55</v>
@@ -5169,13 +5322,13 @@
         <v>59285</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="H53" s="7">
         <v>38</v>
@@ -5184,13 +5337,13 @@
         <v>43557</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="M53" s="7">
         <v>93</v>
@@ -5199,19 +5352,19 @@
         <v>102841</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>244</v>
@@ -5220,13 +5373,13 @@
         <v>256855</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="H54" s="7">
         <v>187</v>
@@ -5235,13 +5388,13 @@
         <v>204294</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="M54" s="7">
         <v>431</v>
@@ -5250,19 +5403,19 @@
         <v>461149</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7">
         <v>333</v>
@@ -5271,13 +5424,13 @@
         <v>351462</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="H55" s="7">
         <v>214</v>
@@ -5286,13 +5439,13 @@
         <v>223944</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="M55" s="7">
         <v>547</v>
@@ -5301,19 +5454,19 @@
         <v>575406</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>664</v>
@@ -5322,13 +5475,13 @@
         <v>712947</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="H56" s="7">
         <v>407</v>
@@ -5337,13 +5490,13 @@
         <v>446062</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="M56" s="7">
         <v>1071</v>
@@ -5352,13 +5505,13 @@
         <v>1159009</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5526,13 @@
         <v>1419752</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>874</v>
@@ -5388,13 +5541,13 @@
         <v>946354</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>2207</v>
@@ -5403,18 +5556,18 @@
         <v>2366106</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +5591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBDB2AD-77D5-44FE-9CBC-2E1EEA8EE6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7788EC-0F63-4ACC-9402-A9859EF13436}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5455,7 +5608,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5562,13 +5715,13 @@
         <v>7406</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5577,13 +5730,13 @@
         <v>4473</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5592,19 +5745,19 @@
         <v>11879</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>12</v>
@@ -5613,13 +5766,13 @@
         <v>14488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5628,13 +5781,13 @@
         <v>7014</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5643,19 +5796,19 @@
         <v>21502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>29</v>
@@ -5664,13 +5817,13 @@
         <v>33430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -5679,13 +5832,13 @@
         <v>27677</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -5694,19 +5847,19 @@
         <v>61108</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -5715,13 +5868,13 @@
         <v>24290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5730,13 +5883,13 @@
         <v>18128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -5745,19 +5898,19 @@
         <v>42418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>51</v>
@@ -5766,13 +5919,13 @@
         <v>56551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5781,13 +5934,13 @@
         <v>43683</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -5796,13 +5949,13 @@
         <v>100235</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5970,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5832,13 +5985,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5847,18 +6000,18 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5870,13 +6023,13 @@
         <v>4185</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5885,13 +6038,13 @@
         <v>7125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5900,19 +6053,19 @@
         <v>11310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>7</v>
@@ -5921,13 +6074,13 @@
         <v>7372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5936,13 +6089,13 @@
         <v>3079</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5951,19 +6104,19 @@
         <v>10451</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>34</v>
@@ -5972,13 +6125,13 @@
         <v>35127</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -5987,13 +6140,13 @@
         <v>19901</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -6002,19 +6155,19 @@
         <v>55027</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>37</v>
@@ -6023,13 +6176,13 @@
         <v>40077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6038,13 +6191,13 @@
         <v>18346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -6053,19 +6206,19 @@
         <v>58423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>476</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>75</v>
@@ -6074,13 +6227,13 @@
         <v>83536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -6089,13 +6242,13 @@
         <v>65230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -6104,13 +6257,13 @@
         <v>148766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6278,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6140,13 +6293,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6155,18 +6308,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6178,13 +6331,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6193,13 +6346,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6208,19 +6361,19 @@
         <v>5276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -6229,13 +6382,13 @@
         <v>865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6244,13 +6397,13 @@
         <v>845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>15</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -6259,19 +6412,19 @@
         <v>1710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>27</v>
@@ -6280,13 +6433,13 @@
         <v>24945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -6295,13 +6448,13 @@
         <v>19354</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -6310,19 +6463,19 @@
         <v>44300</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>53</v>
@@ -6331,13 +6484,13 @@
         <v>51825</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6346,13 +6499,13 @@
         <v>28341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -6361,19 +6514,19 @@
         <v>80166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>48</v>
@@ -6382,13 +6535,13 @@
         <v>45371</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -6397,13 +6550,13 @@
         <v>33894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -6412,13 +6565,13 @@
         <v>79265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6586,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6448,13 +6601,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6463,18 +6616,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6486,13 +6639,13 @@
         <v>9037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6501,13 +6654,13 @@
         <v>8177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -6516,19 +6669,19 @@
         <v>17214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
@@ -6537,13 +6690,13 @@
         <v>2957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -6552,13 +6705,13 @@
         <v>2137</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6567,19 +6720,19 @@
         <v>5095</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>13</v>
@@ -6588,13 +6741,13 @@
         <v>14037</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -6603,13 +6756,13 @@
         <v>14043</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -6618,19 +6771,19 @@
         <v>28080</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>12</v>
@@ -6639,13 +6792,13 @@
         <v>14043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>17</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6654,13 +6807,13 @@
         <v>9838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6669,19 +6822,19 @@
         <v>23881</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>69</v>
@@ -6690,13 +6843,13 @@
         <v>72106</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -6705,13 +6858,13 @@
         <v>47663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>557</v>
       </c>
       <c r="M26" s="7">
         <v>116</v>
@@ -6720,13 +6873,13 @@
         <v>119769</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6894,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6756,13 +6909,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6771,18 +6924,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6794,13 +6947,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6809,13 +6962,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6824,19 +6977,19 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>523</v>
+        <v>563</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -6845,13 +6998,13 @@
         <v>1020</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6860,13 +7013,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -6875,19 +7028,19 @@
         <v>1020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>11</v>
@@ -6896,13 +7049,13 @@
         <v>11685</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -6911,13 +7064,13 @@
         <v>10984</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -6926,19 +7079,19 @@
         <v>22669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>37</v>
@@ -6947,13 +7100,13 @@
         <v>36644</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -6962,13 +7115,13 @@
         <v>28715</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -6977,19 +7130,19 @@
         <v>65359</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>29</v>
@@ -6998,13 +7151,13 @@
         <v>30624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -7013,13 +7166,13 @@
         <v>15719</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -7028,13 +7181,13 @@
         <v>46343</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7202,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -7064,13 +7217,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7079,18 +7232,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7102,13 +7255,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7117,13 +7270,13 @@
         <v>873</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>117</v>
+        <v>594</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7132,19 +7285,19 @@
         <v>873</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>10</v>
@@ -7153,13 +7306,13 @@
         <v>11006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -7168,13 +7321,13 @@
         <v>10953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>559</v>
+        <v>163</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -7183,19 +7336,19 @@
         <v>21960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>23</v>
@@ -7204,13 +7357,13 @@
         <v>23765</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -7219,13 +7372,13 @@
         <v>14191</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -7234,19 +7387,19 @@
         <v>37957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>38</v>
@@ -7255,13 +7408,13 @@
         <v>39415</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -7270,13 +7423,13 @@
         <v>29329</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -7285,19 +7438,19 @@
         <v>68744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>32</v>
@@ -7306,13 +7459,13 @@
         <v>33315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -7321,13 +7474,13 @@
         <v>20222</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -7336,13 +7489,13 @@
         <v>53538</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7510,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7372,13 +7525,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7387,18 +7540,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7410,13 +7563,13 @@
         <v>21038</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -7425,13 +7578,13 @@
         <v>25312</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="M40" s="7">
         <v>42</v>
@@ -7440,19 +7593,19 @@
         <v>46350</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>37</v>
@@ -7461,13 +7614,13 @@
         <v>40982</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="H41" s="7">
         <v>31</v>
@@ -7476,13 +7629,13 @@
         <v>32291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -7491,19 +7644,19 @@
         <v>73273</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>105</v>
@@ -7512,13 +7665,13 @@
         <v>125697</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="H42" s="7">
         <v>91</v>
@@ -7527,13 +7680,13 @@
         <v>95630</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
       <c r="M42" s="7">
         <v>196</v>
@@ -7542,19 +7695,19 @@
         <v>221327</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>62</v>
@@ -7563,13 +7716,13 @@
         <v>68666</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="H43" s="7">
         <v>59</v>
@@ -7578,13 +7731,13 @@
         <v>59731</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="M43" s="7">
         <v>121</v>
@@ -7593,19 +7746,19 @@
         <v>128397</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>91</v>
@@ -7614,13 +7767,13 @@
         <v>103543</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="H44" s="7">
         <v>69</v>
@@ -7629,13 +7782,13 @@
         <v>71902</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>625</v>
+        <v>13</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="M44" s="7">
         <v>160</v>
@@ -7644,13 +7797,13 @@
         <v>175446</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7818,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7680,13 +7833,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7695,18 +7848,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7718,13 +7871,13 @@
         <v>3355</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>118</v>
+        <v>671</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7733,13 +7886,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -7748,19 +7901,19 @@
         <v>3355</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>4</v>
@@ -7769,13 +7922,13 @@
         <v>4003</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -7784,13 +7937,13 @@
         <v>9780</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>114</v>
+        <v>678</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>638</v>
+        <v>679</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -7799,19 +7952,19 @@
         <v>13782</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>639</v>
+        <v>680</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>640</v>
+        <v>681</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>641</v>
+        <v>682</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>46</v>
@@ -7820,13 +7973,13 @@
         <v>48737</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>643</v>
+        <v>684</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="H48" s="7">
         <v>42</v>
@@ -7835,13 +7988,13 @@
         <v>42851</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>646</v>
+        <v>687</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="M48" s="7">
         <v>88</v>
@@ -7850,19 +8003,19 @@
         <v>91588</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>648</v>
+        <v>689</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>649</v>
+        <v>690</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>650</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>115</v>
@@ -7871,13 +8024,13 @@
         <v>118496</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>651</v>
+        <v>692</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>652</v>
+        <v>693</v>
       </c>
       <c r="H49" s="7">
         <v>77</v>
@@ -7886,13 +8039,13 @@
         <v>79596</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>654</v>
+        <v>695</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="M49" s="7">
         <v>192</v>
@@ -7901,19 +8054,19 @@
         <v>198092</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>657</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>147</v>
@@ -7922,13 +8075,13 @@
         <v>154346</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>658</v>
+        <v>699</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>659</v>
+        <v>700</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>660</v>
+        <v>54</v>
       </c>
       <c r="H50" s="7">
         <v>103</v>
@@ -7937,13 +8090,13 @@
         <v>108245</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="M50" s="7">
         <v>250</v>
@@ -7952,13 +8105,13 @@
         <v>262590</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,13 +8126,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -7988,13 +8141,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -8003,13 +8156,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,13 +8179,13 @@
         <v>49355</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="H52" s="7">
         <v>45</v>
@@ -8041,13 +8194,13 @@
         <v>47858</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="M52" s="7">
         <v>87</v>
@@ -8056,19 +8209,19 @@
         <v>97213</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>673</v>
+        <v>713</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>75</v>
@@ -8077,13 +8230,13 @@
         <v>82695</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>674</v>
+        <v>714</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>675</v>
+        <v>45</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="H53" s="7">
         <v>64</v>
@@ -8092,13 +8245,13 @@
         <v>66098</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="M53" s="7">
         <v>139</v>
@@ -8107,19 +8260,19 @@
         <v>148792</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>288</v>
@@ -8128,13 +8281,13 @@
         <v>317423</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="H54" s="7">
         <v>238</v>
@@ -8143,13 +8296,13 @@
         <v>244633</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="M54" s="7">
         <v>526</v>
@@ -8158,19 +8311,19 @@
         <v>562056</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7">
         <v>376</v>
@@ -8179,13 +8332,13 @@
         <v>393457</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="H55" s="7">
         <v>271</v>
@@ -8194,13 +8347,13 @@
         <v>272025</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="M55" s="7">
         <v>647</v>
@@ -8209,19 +8362,19 @@
         <v>665481</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>542</v>
@@ -8230,13 +8383,13 @@
         <v>579393</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
       <c r="H56" s="7">
         <v>395</v>
@@ -8245,13 +8398,13 @@
         <v>406559</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="M56" s="7">
         <v>937</v>
@@ -8260,13 +8413,13 @@
         <v>985952</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,13 +8434,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8296,13 +8449,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8311,18 +8464,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
